--- a/1. Raw Dataset _ SoR _ Building Standards.xlsx
+++ b/1. Raw Dataset _ SoR _ Building Standards.xlsx
@@ -10,84 +10,6 @@
   <definedNames/>
   <calcPr/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A1">
-      <text>
-        <t xml:space="preserve">@bhavna@prosperiti.org.in @anand@prosperiti.org.in check pls
-_Assigned to anand@prosperiti.org.in_
-	-Rohan Ross
-----
-fill empty cells
-	-Bhavna Mundhra
-----
-Your spacing needs to be fixed for every if condition
-Add five spaces for every loop
-	-Sargun Kaur
-----
-@bhuvana@prosperiti.org.in @shubho@prosperiti.org.in
-This is the template that we have developed for the inter-state comparison of building standards. We have taken 5 sample industries to compare the 4 standards (setback, ground coverage, FAR, and parking space) across states. We have done a sample for PUDA Punjab and Tamil Nadu. Two state profiles (PUDA Punjab and Tamil Nadu) are part of the file where we highlight the regulations across each state.
-The time commitment for this format to be submitted for your review was Friday (April 7) end of the day. But there was some delay in finding the appropriate sample cases of industries, calculating the land lost to different standards, and developing the state profiles. We apologise for the delay caused. 
-As per the weekly output we discussed at the last project meeting, an inter-state comparison of building standards, including all relevant bye-laws in Punjab, is supposed to be completed by 12th April. If you could review the format and give your comments on Monday, we will fix the format of the inter-state comparison and will fill in the required data as per the timeline.
-_Assigned to bhuvana@prosperiti.org.in_
-	-Anandhakrishnan S
-some of this is confusing to me: if the BBLs don't give you this data by sqm then what is the point of showing the same data for each of the combinations?
-	-Bhuvana Anand
-----
-All figures here are for an industrial building with one specified feature: that it's on a plot of 150 sqm. No other assumptions made (like type of industry, width of abutting road, building height). If a standard is defined based on multiple variables, we have picked the figure that is least restrictive. For example, a low-rise industry on a 150 sqm plot in PB has different setbacks requirement than a high-rise building on the same plot---we have recorded the setbacks that are lower
-	-Bhavna Mundhra
-----
-Use bullets wherever possible
-	-Sargun Kaur
-----
-Hello everyone,
-Here is a template for comparing building standards across states, to share with GoP. The aim of the entries here is not to record complete standards from the laws. I wanted to capture summary questions for a quick comparison. Please have a look and share your feedback
-@sargun@prosperiti.org.in @anand@prosperiti.org.in @saiee@prosperiti.org.in 
-I apologise for the delay.
-	-Bhavna Mundhra
-----
-could be split into one question for each variable identified
-	-Bhavna Mundhra
-Maybe, instead of this we highlight the number of combinations that arise out of all these variables?
-	-Sargun Kaur
-Will have to word it cleverly to communicate why this is relevant:
-something like how many possible combinations arise out of these variables for the department to enforce? or something like that
-	-Sargun Kaur</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B16">
-      <text>
-        <t xml:space="preserve">parking befire FAR
-	-Bhavna Mundhra</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A1">
-      <text>
-        <t xml:space="preserve">Let's remove this
-setbacks is a floor standard.
-Let's not complicate things for the audience
-Also, in some cases, there is no upper limit, right?
-	-Sargun Kaur</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21635,7 +21557,7 @@
         <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> 
-         Front setback = 7m + For every increase in height of 6m or part thereof above 30m minimum extent of setback space to be left additionally shall be one meter subject to the maximum setback of 20m
+         Front setback = 7 m + For every increase in height of 6 m or part thereof above 30 m minimum extent of setback space to be left additionally shall be one meter subject to the maximum setback of 20 m
 </t>
     </r>
     <r>
@@ -21867,7 +21789,7 @@
         <rFont val="Public Sans"/>
         <color rgb="FF274E13"/>
       </rPr>
-      <t>If road width &lt; 3m:</t>
+      <t>If road width &lt; 3 m:</t>
     </r>
     <r>
       <rPr>
@@ -22150,7 +22072,7 @@
         <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
-         Rear setback = 7m + For every increase in height of 6m or part thereof above 30m minimum extent of setback space to be left additionally shall be one meter subject to the maximum setback of 20m 
+         Rear setback = 7m + For every increase in height of 6 m or part thereof above 30 m minimum extent of setback space to be left additionally shall be one meter subject to the maximum setback of 20 m 
 </t>
     </r>
     <r>
@@ -22800,7 +22722,7 @@
         <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
-           Side1 setback = 7m + For every increase in height of 6m or part thereof above 30m minimum extent of setback space to be left additionally shall be one meter subject to the maximum setback of 20m 
+           Side1 setback = 7 m + For every increase in height of 6 m or part thereof above 30 m minimum extent of setback space to be left additionally shall be one meter subject to the maximum setback of 20 m 
 </t>
     </r>
     <r>
@@ -23429,7 +23351,7 @@
         <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
-           Side2 setback = 7m + For every increase in height of 6m or part thereof above 30m minimum extent of setback space to be left additionally shall be one meter subject to the maximum setback of 20m</t>
+           Side2 setback = 7 m + For every increase in height of 6 m or part thereof above 30 m minimum extent of setback space to be left additionally shall be one meter subject to the maximum setback of 20 m</t>
     </r>
   </si>
   <si>
@@ -37889,14 +37811,14 @@
         <color rgb="FFFF0000"/>
       </rPr>
       <t xml:space="preserve">If construction type = plotted:
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Public Sans"/>
-        <color rgb="FF9900FF"/>
-      </rPr>
-      <t xml:space="preserve">If plot area ≤ 50 sqm:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Public Sans"/>
+        <color rgb="FF9900FF"/>
+      </rPr>
+      <t xml:space="preserve">   If plot area ≤ 50 sqm:
 </t>
     </r>
     <r>
@@ -44097,7 +44019,8 @@
   </si>
   <si>
     <t>• Width of abutting roadway (WOAR) 
-     • &lt; 4 m</t>
+     • &lt; 4 m
+     • ≥ 4 m</t>
   </si>
   <si>
     <t>• Side
@@ -46961,41 +46884,40 @@
   <hyperlinks>
     <hyperlink display="Inter-state comparison: This sheet records 4 building standards from 24 laws (including the National Building Code 2016) applicable in 11 Indian states. The number of laws studied is greater than the number of states because, typically, every state has three different areas—areas governed by municipal authorities, areas governed by development authorities, and areas marked as industrial estates. In at least 5 states, laws governing construction activities are different for these three areas." location="'Inter-state comparison'!A1" ref="B3"/>
     <hyperlink display="International comparison: This sheet records 4 building standards applicable to 5 other countries." location="'International comparison'!A1" ref="B4"/>
-    <hyperlink r:id="rId2" ref="B6"/>
-    <hyperlink r:id="rId3" ref="B7"/>
-    <hyperlink r:id="rId4" ref="B8"/>
-    <hyperlink r:id="rId5" ref="B9"/>
-    <hyperlink r:id="rId6" ref="B10"/>
-    <hyperlink r:id="rId7" ref="B11"/>
-    <hyperlink r:id="rId8" ref="B12"/>
-    <hyperlink r:id="rId9" ref="B13"/>
-    <hyperlink r:id="rId10" ref="B14"/>
-    <hyperlink r:id="rId11" ref="B15"/>
-    <hyperlink r:id="rId12" ref="B16"/>
-    <hyperlink r:id="rId13" ref="B17"/>
-    <hyperlink r:id="rId14" ref="B18"/>
-    <hyperlink r:id="rId15" ref="B19"/>
-    <hyperlink r:id="rId16" ref="B20"/>
-    <hyperlink r:id="rId17" ref="B21"/>
-    <hyperlink r:id="rId18" ref="B22"/>
-    <hyperlink r:id="rId19" ref="B23"/>
-    <hyperlink r:id="rId20" ref="B24"/>
-    <hyperlink r:id="rId21" ref="B25"/>
-    <hyperlink r:id="rId22" ref="B26"/>
-    <hyperlink r:id="rId23" ref="B27"/>
-    <hyperlink r:id="rId24" ref="B28"/>
-    <hyperlink r:id="rId25" ref="B29"/>
-    <hyperlink r:id="rId26" ref="B30"/>
-    <hyperlink r:id="rId27" ref="B31"/>
-    <hyperlink r:id="rId28" ref="B32"/>
-    <hyperlink r:id="rId29" ref="B33"/>
-    <hyperlink r:id="rId30" ref="B34"/>
+    <hyperlink r:id="rId1" ref="B6"/>
+    <hyperlink r:id="rId2" ref="B7"/>
+    <hyperlink r:id="rId3" ref="B8"/>
+    <hyperlink r:id="rId4" ref="B9"/>
+    <hyperlink r:id="rId5" ref="B10"/>
+    <hyperlink r:id="rId6" ref="B11"/>
+    <hyperlink r:id="rId7" ref="B12"/>
+    <hyperlink r:id="rId8" ref="B13"/>
+    <hyperlink r:id="rId9" ref="B14"/>
+    <hyperlink r:id="rId10" ref="B15"/>
+    <hyperlink r:id="rId11" ref="B16"/>
+    <hyperlink r:id="rId12" ref="B17"/>
+    <hyperlink r:id="rId13" ref="B18"/>
+    <hyperlink r:id="rId14" ref="B19"/>
+    <hyperlink r:id="rId15" ref="B20"/>
+    <hyperlink r:id="rId16" ref="B21"/>
+    <hyperlink r:id="rId17" ref="B22"/>
+    <hyperlink r:id="rId18" ref="B23"/>
+    <hyperlink r:id="rId19" ref="B24"/>
+    <hyperlink r:id="rId20" ref="B25"/>
+    <hyperlink r:id="rId21" ref="B26"/>
+    <hyperlink r:id="rId22" ref="B27"/>
+    <hyperlink r:id="rId23" ref="B28"/>
+    <hyperlink r:id="rId24" ref="B29"/>
+    <hyperlink r:id="rId25" ref="B30"/>
+    <hyperlink r:id="rId26" ref="B31"/>
+    <hyperlink r:id="rId27" ref="B32"/>
+    <hyperlink r:id="rId28" ref="B33"/>
+    <hyperlink r:id="rId29" ref="B34"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="8" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId31"/>
-  <legacyDrawing r:id="rId32"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -49453,36 +49375,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="C2"/>
-    <hyperlink r:id="rId4" ref="D2"/>
-    <hyperlink r:id="rId5" ref="E2"/>
-    <hyperlink r:id="rId6" ref="F2"/>
-    <hyperlink r:id="rId7" ref="G2"/>
-    <hyperlink r:id="rId8" ref="H2"/>
-    <hyperlink r:id="rId9" ref="I2"/>
-    <hyperlink r:id="rId10" ref="J2"/>
-    <hyperlink r:id="rId11" ref="K2"/>
-    <hyperlink r:id="rId12" ref="L2"/>
-    <hyperlink r:id="rId13" ref="M2"/>
-    <hyperlink r:id="rId14" ref="N2"/>
-    <hyperlink r:id="rId15" ref="O2"/>
-    <hyperlink r:id="rId16" ref="P2"/>
-    <hyperlink r:id="rId17" ref="Q2"/>
-    <hyperlink r:id="rId18" ref="R2"/>
-    <hyperlink r:id="rId19" ref="S2"/>
-    <hyperlink r:id="rId20" ref="T2"/>
-    <hyperlink r:id="rId21" ref="U2"/>
-    <hyperlink r:id="rId22" ref="V2"/>
-    <hyperlink r:id="rId23" ref="W2"/>
-    <hyperlink r:id="rId24" ref="X2"/>
-    <hyperlink r:id="rId25" ref="Y2"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="C2"/>
+    <hyperlink r:id="rId3" ref="D2"/>
+    <hyperlink r:id="rId4" ref="E2"/>
+    <hyperlink r:id="rId5" ref="F2"/>
+    <hyperlink r:id="rId6" ref="G2"/>
+    <hyperlink r:id="rId7" ref="H2"/>
+    <hyperlink r:id="rId8" ref="I2"/>
+    <hyperlink r:id="rId9" ref="J2"/>
+    <hyperlink r:id="rId10" ref="K2"/>
+    <hyperlink r:id="rId11" ref="L2"/>
+    <hyperlink r:id="rId12" ref="M2"/>
+    <hyperlink r:id="rId13" ref="N2"/>
+    <hyperlink r:id="rId14" ref="O2"/>
+    <hyperlink r:id="rId15" ref="P2"/>
+    <hyperlink r:id="rId16" ref="Q2"/>
+    <hyperlink r:id="rId17" ref="R2"/>
+    <hyperlink r:id="rId18" ref="S2"/>
+    <hyperlink r:id="rId19" ref="T2"/>
+    <hyperlink r:id="rId20" ref="U2"/>
+    <hyperlink r:id="rId21" ref="V2"/>
+    <hyperlink r:id="rId22" ref="W2"/>
+    <hyperlink r:id="rId23" ref="X2"/>
+    <hyperlink r:id="rId24" ref="Y2"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="8" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
 
